--- a/NH_HealthCost_data/71260 CT - Chest (outpatient).xlsx
+++ b/NH_HealthCost_data/71260 CT - Chest (outpatient).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/Thesis_Hospital_Costs/NH_HealthCost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E35D54-A386-F44D-B075-575AF3A05843}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47372E38-242A-FC4B-B88D-78EEE8143207}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="4" xr2:uid="{908DF8FC-DA0E-9142-97C3-2981526D7DA1}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="37">
   <si>
     <t>Provider Name Compare Selected</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Compare Franklin Regional HospitalFranklin Regional Hospital</t>
-  </si>
-  <si>
-    <t>40% </t>
   </si>
   <si>
     <t>Compare Springfield Medical Care SystemSpringfield Medical Care System</t>
@@ -44231,7 +44228,7 @@
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>637</v>
@@ -45490,8 +45487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1AB19-B2A1-2D43-8F7A-0C43C5AC3799}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45553,7 +45550,7 @@
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5">
         <v>1573</v>
@@ -45621,7 +45618,7 @@
     </row>
     <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5">
         <v>2044</v>
@@ -45660,8 +45657,8 @@
       <c r="B10" s="5">
         <v>2326</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
+      <c r="C10" s="7">
+        <v>0.4</v>
       </c>
       <c r="D10" s="8">
         <v>1395</v>
